--- a/Food Sales Data Cleaned.xlsx
+++ b/Food Sales Data Cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Okpono\Desktop\Data Analysis Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81292E5-A43A-457F-8A52-5DE6BDABB018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D75DFF-2C36-459F-8E01-C7DAB38869DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A54D382-D787-4449-9060-0BB9B0C3ED7C}"/>
   </bookViews>
@@ -19774,7 +19774,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -19814,7 +19814,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19852,7 +19852,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -20086,7 +20086,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -26454,7 +26454,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
